--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,602 +443,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28</t>
+          <t>Canadian CS6.2 48TD-450W Full black</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28" class="product--title</t>
+          <t>Aiko-A435-MAH54Mb Full black</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V</t>
+          <t>Aiko-A445-MAH54Mb Full black</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V" class="product--title</t>
+          <t>Aiko-A465-MAH54Mw BF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-440-Wp-Glas-Glas-N-Type-Solarmodul-bifazial-white-mesh</t>
+          <t>Aiko-A460-MAH54Db Full black</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-440-Wp-Glas-Glas-N-Type-Solarmodul-bifazial-white-mesh" class="product--title</t>
+          <t>Aiko-A465-MAH54Dw BF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-445-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28</t>
+          <t>Aiko-A475-MAH54Mw BF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-445-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28" class="product--title</t>
+          <t>Aiko-A475-MCE54Db Full black</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-bifaziales-Glas-Glas-Solarmodul-TSM-NEG9RC.27</t>
+          <t>Aiko-A470-MAH54Mw</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-bifaziales-Glas-Glas-Solarmodul-TSM-NEG9RC.27" class="product--title</t>
+          <t>Aiko-A510-MAH60Mb Full black</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-455-Wp-Glas-Glas-Solarmodul-bifazial-white-mesh</t>
+          <t>Jinko JKM430N-54HL4R-BDV BF / Bifacial</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-455-Wp-Glas-Glas-Solarmodul-bifazial-white-mesh" class="product--title</t>
+          <t>Jinko JKM435N-54HL4R-B Full black</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-445-Wp-HJT-Glas-Glas-N-Type-Solarmodul-bifazial-white-mesh</t>
+          <t>Jinko JKM455N-54HL4R-V BF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-445-Wp-HJT-Glas-Glas-N-Type-Solarmodul-bifazial-white-mesh" class="product--title</t>
+          <t>Jinko JKM455N-48HL4M-DB Full black</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-Endklemme-Orange-FUMT.30.SV.R8007</t>
+          <t>Jinko JKM460N-48HL4M-DB Full black</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-Endklemme-Orange-FUMT.30.SV.R8007" class="product--title</t>
+          <t>Jinko JKM480N-60HL4-V BF</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-445-Wp-Glas-Glas-Solarmodul-Fullblack-bifazial</t>
+          <t>Jinko JKM500N-54HL4M-BDV BF / Bifacial</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-445-Wp-Glas-Glas-Solarmodul-Fullblack-bifazial" class="product--title</t>
+          <t>Jinko JKM550M-72HC-BDVP SF</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-370-M-Silk-Nova-Red-370-Wp-Solarmodul</t>
+          <t>Sonnex SNX-E44SP-415M 1500V MC4 Full black</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-370-M-Silk-Nova-Red-370-Wp-Solarmodul" class="product--title</t>
+          <t>JA Solar JAM54D41-450/LB - Full black - Bifacial</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-400-M-Silk-Nova-Orange-400-Wp-Solarmodul</t>
+          <t>JA Solar JAM60D41-500/LB - Full black - Bifacial</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-400-M-Silk-Nova-Orange-400-Wp-Solarmodul" class="product--title</t>
+          <t>JA Solar JAM66S30-500/MR - Black frame / Cell color JA-1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28-Vollpalette-36-Stueck</t>
+          <t>JA Solar JAM66S30-500/MR - Black frame</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28-Vollpalette-36-Stueck" class="product--title</t>
+          <t>JA Solar JAM66S30-505/MR - Black frame</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/REC-Solar-Alpha-Pure-Series-400-Solarmodul-400Wp-monokristallin</t>
+          <t>Longi 435 - LR5-54HTB-435M Full black / Back contact</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/REC-Solar-Alpha-Pure-Series-400-Solarmodul-400Wp-monokristallin" class="product--title</t>
+          <t>Longi 440 - LR5-54HTH-440M BF</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-390-M-Silk-Nova-Green-390-Wp-Solarmodul</t>
+          <t>Longi 440 - LR5-54HTH-440M BF - Medium blue / Current class: L</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-390-M-Silk-Nova-Green-390-Wp-Solarmodul" class="product--title</t>
+          <t>Longi 455 - LR7-54HTH-455M BF</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-380-M-Silk-Nova-Orange-380-Wp-Solarmodul</t>
+          <t>Longi 460 - LR7-54HTH-460M BF</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-380-M-Silk-Nova-Orange-380-Wp-Solarmodul" class="product--title</t>
+          <t>Longi 465 - LR7-54HTH-465M BF</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Orange-Solarmodul-Muster</t>
+          <t>Q-Cells Q.PEAK DUO BLK M G11S 400/113</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Orange-Solarmodul-Muster" class="product--title</t>
+          <t>Q-Cells Q.PEAK DUO BLK M G11S 405/113</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-Mittelklemme-Orange-FUMI.3034.SV.R8007</t>
+          <t>Q-Cells Q.PEAK DUO M-G11S+ 410/111 BF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-Mittelklemme-Orange-FUMI.3034.SV.R8007" class="product--title</t>
+          <t>Q-Cells Q.PEAK DUO M G11S 415W BF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/LUXOR-Eco-Line-N-Type-TOPCon-M108-Solarmodul-410-W-LX-410M/182-108-GG-BiF-monokristallin-Glas-Glas</t>
+          <t>Q-Cells Q.PEAK DUO M-G11S 415/108 BF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/LUXOR-Eco-Line-N-Type-TOPCon-M108-Solarmodul-410-W-LX-410M/182-108-GG-BiF-monokristallin-Glas-Glas" class="product--title</t>
+          <t>Hyundai HiT-H450LE Full black</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28</t>
+          <t>Jolywood JW-HD108N-420W Full black / Bifacial</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28" class="product--title</t>
+          <t>Jolywood JW-HD108N-435W Full black / Bifacial</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-360-M-Silk-Plus-Silver-360-Wp-Solarmodul</t>
+          <t>Jolywood JW-HD108N-R2-500W Full black / Bifacial</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-360-M-Silk-Plus-Silver-360-Wp-Solarmodul" class="product--title</t>
+          <t>Jolywood JW-HD120N-R3-500W / Bifacial BF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V-JK03M</t>
+          <t>Jolywood JW-HD144N-580W / Bifacial SF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V-JK03M" class="product--title</t>
+          <t>Trina Vertex S+ TSM-440NEG9R.28 BF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-435-Wp-N-Type-Solarmodul-Fullblack-54HL4R-B</t>
+          <t>Trina Vertex S+ TSM-440NEG9R.25 Full black</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-435-Wp-N-Type-Solarmodul-Fullblack-54HL4R-B" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-435-Wp-bifaziales-Glas-Glas-Solarmodul-TSM-NEG9RC.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-435-Wp-bifaziales-Glas-Glas-Solarmodul-TSM-NEG9RC.27" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO6m-Explorer-440-Wp-Glas-Folie-Solarmodul-LR5-54HTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO6m-Explorer-440-Wp-Glas-Folie-Solarmodul-LR5-54HTH" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-430-Wp-HJT-Glas-Glas-N-Type-Solarmodul-bifazial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-430-Wp-HJT-Glas-Glas-N-Type-Solarmodul-bifazial" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-430-Wp-Glas-Glas-N-Type-Solarmodul-transparent-bifazial</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-Eco-Line-M108-430-Wp-Glas-Glas-N-Type-Solarmodul-transparent-bifazial" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Rot-Solarmodul-Muster</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Rot-Solarmodul-Muster" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO6m-Explorer-435-Wp-Glas-Folie-Solarmodul-LR5-54HTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO6m-Explorer-435-Wp-Glas-Folie-Solarmodul-LR5-54HTH" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-435-Wp-bifaziales-N-Type-Glas-Glas-Solarmodul-54HL4R-BDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-435-Wp-bifaziales-N-Type-Glas-Glas-Solarmodul-54HL4R-BDB" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-440-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Green-Solarmodul-Muster</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/FuturaSun-FU-5-M-Silk-Nova-Green-Solarmodul-Muster" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X6-Artist-Ultra-Black-420-Wp-Glas-Glas-Solarmodul-LR5-54HTDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X6-Artist-Ultra-Black-420-Wp-Glas-Glas-Solarmodul-LR5-54HTDB" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X6-Explorer-425-Wp-Glas-Folie-Solarmodul-Fullblack-LR5-54HTB</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X6-Explorer-425-Wp-Glas-Folie-Solarmodul-Fullblack-LR5-54HTB" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-445-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-445-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-ECO-LINE-M108-Glas/Glas-N-Type-TOPCon-435Wp-Bifazial-Fullblack</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Luxor-ECO-LINE-M108-Glas/Glas-N-Type-TOPCon-435Wp-Bifazial-Fullblack" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-455-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-455-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-455-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28-Vollpalette-36-Stueck</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-455-Wp-Glas-Glas-Solarmodul-TSM-NEG9R.28-Vollpalette-36-Stueck" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V-Vollpalette-36-Stueck</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-445-Wp-N-Type-Solarmodul-54HL4R-V-Vollpalette-36-Stueck" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-455-Wp-N-Type-Solarmodul-54HL4R-V-H3-JK03M</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Tiger-Neo-455-Wp-N-Type-Solarmodul-54HL4R-V-H3-JK03M" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Trina-Solar-Vertex-S-450-Wp-Glas-Glas-Solarmodul-Fullblack-TSM-NEG9R.25" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Solar-Tiger-Neo-N-Typ-54HL4-V-415-W-monokristallin</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/Jinko-Solar-Tiger-Neo-N-Typ-54HL4-V-415-W-monokristallin" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X10-Explorer-485-Wp-Glas-Folie-Solarmodul-LR7-54HVH</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO-X10-Explorer-485-Wp-Glas-Folie-Solarmodul-LR7-54HVH" class="product--title</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO7m-445-Wp-Glas-Glas-Solarmodul-Bifazial-weisse-Folie-LR8-48HGD</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>https://www.mg-solar-shop.de/LONGi-Hi-MO7m-445-Wp-Glas-Glas-Solarmodul-Bifazial-weisse-Folie-LR8-48HGD" class="product--title</t>
+          <t>Trina Vertex S+ TSM500NEG18R.28 BF</t>
         </is>
       </c>
     </row>
